--- a/medicine/Maladies infectieuses/Exanthème_subit/Exanthème_subit.xlsx
+++ b/medicine/Maladies infectieuses/Exanthème_subit/Exanthème_subit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exanth%C3%A8me_subit</t>
+          <t>Exanthème_subit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exanthème subit, ou roséole infantile, est une maladie virale bénigne causée par un herpèsvirus de type 6 (HHV-6). Courante chez les enfants de 6 à 24 mois, elle devient rare après 4 ans. Elle est parfois appelée sixième maladie, parce que, à l'époque où l'on a voulu établir une liste des maladies provoquant un exanthème infantile, elle a été la sixième à être énumérée.
 Elle se manifeste d'abord par une fièvre pouvant atteindre facilement 39 à 40 °C pendant trois jours. L’enfant peut être sujet à des convulsions. La fièvre est suivie, quelques jours plus tard, d'une éruption cutanée : taches rouges persistant 1 à 3 jours ; l'enfant n'est alors plus contagieux. À l'apparition des boutons, la fièvre tombe aussi rapidement qu'elle est apparue.
